--- a/biology/Botanique/Parc_Vabaduse/Parc_Vabaduse.xlsx
+++ b/biology/Botanique/Parc_Vabaduse/Parc_Vabaduse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de la liberté (estonien : Vabaduse park) est un parc du quartier de Nõmme à Tallinn en Estonie.
 </t>
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est bordé par les rues Sihi, Lõuna, Ravila, J. Mändmetsa, Nõmme-Kase et Hiiu. 
 La superficie du parc est de 14,74 hectares. 
 Le parc du Sanatorium et le parc d'Hiiu sont situés à proximité du parc.
 De nos jours le parc accueille des événements. 
-Le parc a accueilli la foire de rue "Roheliste gatete tāvāv", la fête de la chanson pour enfants de Nõmme et "Nõmme kevad"[1],[2].
-Le 17 juin 2018, la IVe Journée de la chanson et de la danse a eu lieu dans le parc de Nõmme, renouant avec la tradition des journées de la chanson à Nõmme aux premiers jours de la république[3]. 
-Le 29 juillet 2007, une loi est entrée en vigueur qui place sous protection la forêt du parc de la liberté[4].
+Le parc a accueilli la foire de rue "Roheliste gatete tāvāv", la fête de la chanson pour enfants de Nõmme et "Nõmme kevad",.
+Le 17 juin 2018, la IVe Journée de la chanson et de la danse a eu lieu dans le parc de Nõmme, renouant avec la tradition des journées de la chanson à Nõmme aux premiers jours de la république. 
+Le 29 juillet 2007, une loi est entrée en vigueur qui place sous protection la forêt du parc de la liberté.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Vabadus est l'un des parcs forestiers très caractéristique de Nõmme. 
 De telles forêts de pins étaient prévues pour Nõmme déjà à la fin des années 1920. 
